--- a/Roadmap.xlsx
+++ b/Roadmap.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dehilja\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr codeName="DieseArbeitsmappe"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="6225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="6230"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>January</t>
   </si>
@@ -98,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -286,11 +281,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -299,42 +303,66 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -343,36 +371,24 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -435,7 +451,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -470,7 +486,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -647,7 +663,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -658,20 +674,20 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:AV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="11.42578125" style="2" customWidth="1"/>
-    <col min="3" max="35" width="11.42578125" style="2"/>
-    <col min="36" max="36" width="14.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="11.453125" style="2"/>
+    <col min="2" max="2" width="11.453125" style="2" customWidth="1"/>
+    <col min="3" max="35" width="11.453125" style="2"/>
+    <col min="36" max="36" width="14.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
         <v>9</v>
@@ -681,287 +697,287 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="19"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:48" s="1" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="3" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:48" s="1" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="12"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="12"/>
-      <c r="AQ4" s="12"/>
-      <c r="AR4" s="12"/>
-      <c r="AS4" s="12"/>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
-      <c r="AV4" s="13"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="25"/>
+      <c r="AR4" s="25"/>
+      <c r="AS4" s="25"/>
+      <c r="AT4" s="25"/>
+      <c r="AU4" s="25"/>
+      <c r="AV4" s="26"/>
     </row>
-    <row r="5" spans="1:48" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
-      <c r="AN5" s="15"/>
-      <c r="AO5" s="15"/>
-      <c r="AP5" s="15"/>
-      <c r="AQ5" s="15"/>
-      <c r="AR5" s="15"/>
-      <c r="AS5" s="15"/>
-      <c r="AT5" s="15"/>
-      <c r="AU5" s="15"/>
-      <c r="AV5" s="16"/>
+    <row r="5" spans="1:48" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="28"/>
+      <c r="AL5" s="28"/>
+      <c r="AM5" s="28"/>
+      <c r="AN5" s="28"/>
+      <c r="AO5" s="28"/>
+      <c r="AP5" s="28"/>
+      <c r="AQ5" s="28"/>
+      <c r="AR5" s="28"/>
+      <c r="AS5" s="28"/>
+      <c r="AT5" s="28"/>
+      <c r="AU5" s="28"/>
+      <c r="AV5" s="29"/>
     </row>
-    <row r="6" spans="1:48" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:48" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+      <c r="A6" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="8" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="8" t="s">
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="8" t="s">
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="8" t="s">
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="8" t="s">
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="8" t="s">
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="8" t="s">
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="22"/>
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="23"/>
+      <c r="AQ6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="9"/>
-      <c r="AT6" s="9"/>
-      <c r="AU6" s="9"/>
-      <c r="AV6" s="10"/>
+      <c r="AR6" s="22"/>
+      <c r="AS6" s="22"/>
+      <c r="AT6" s="22"/>
+      <c r="AU6" s="22"/>
+      <c r="AV6" s="23"/>
     </row>
-    <row r="7" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:48" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="20" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="AE7" s="26" t="s">
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+      <c r="AE7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
-      <c r="AH7" s="26"/>
-      <c r="AI7" s="27"/>
-      <c r="AJ7" s="31" t="s">
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AK7" s="28" t="s">
+      <c r="AK7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AL7" s="28"/>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="26" t="s">
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="AO7" s="26"/>
-      <c r="AP7" s="26"/>
-      <c r="AQ7" s="26"/>
-      <c r="AR7" s="26"/>
-      <c r="AS7" s="26"/>
-      <c r="AT7" s="26"/>
-      <c r="AU7" s="26"/>
-      <c r="AV7" s="27"/>
+      <c r="AO7" s="19"/>
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="19"/>
+      <c r="AR7" s="19"/>
+      <c r="AS7" s="19"/>
+      <c r="AT7" s="19"/>
+      <c r="AU7" s="19"/>
+      <c r="AV7" s="20"/>
     </row>
-    <row r="8" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
-      <c r="AJ8" s="32" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
+      <c r="AJ8" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:48" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E9" s="24" t="s">
+    <row r="9" spans="1:48" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
-      <c r="AJ9" s="30">
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
+      <c r="AJ9" s="10">
         <v>43281</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="G10" s="24" t="s">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="G10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="25"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G10:R10"/>
-    <mergeCell ref="AK7:AM7"/>
-    <mergeCell ref="AN7:AV7"/>
-    <mergeCell ref="E9:L9"/>
+  <mergeCells count="18">
     <mergeCell ref="AK6:AP6"/>
     <mergeCell ref="AQ6:AV6"/>
     <mergeCell ref="A4:AV5"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:L8"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G6:L6"/>
     <mergeCell ref="M6:R6"/>
@@ -969,6 +985,13 @@
     <mergeCell ref="Y6:AD6"/>
     <mergeCell ref="AE6:AJ6"/>
     <mergeCell ref="AE7:AI7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G10:R10"/>
+    <mergeCell ref="AK7:AM7"/>
+    <mergeCell ref="AN7:AV7"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="J7:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Roadmap.xlsx
+++ b/Roadmap.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win7\Documents\GitHub\Paralysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="6230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="6225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>January</t>
   </si>
@@ -88,12 +93,18 @@
   </si>
   <si>
     <t>Alpha Tests -- Closed?</t>
+  </si>
+  <si>
+    <t>Animator Redesign/MECHANIM -- Sandro</t>
+  </si>
+  <si>
+    <t>Gamemodes -- Sandro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -314,12 +325,54 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -332,37 +385,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -371,24 +394,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -663,31 +674,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:AV10"/>
+  <dimension ref="A1:AV12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:L7"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="2"/>
-    <col min="2" max="2" width="11.453125" style="2" customWidth="1"/>
-    <col min="3" max="35" width="11.453125" style="2"/>
-    <col min="36" max="36" width="14.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="11.453125" style="2"/>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="11.42578125" style="2" customWidth="1"/>
+    <col min="3" max="35" width="11.42578125" style="2"/>
+    <col min="36" max="36" width="14.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
         <v>9</v>
@@ -697,7 +708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="6" t="s">
         <v>10</v>
@@ -707,273 +718,307 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:48" s="1" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+    <row r="3" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:48" s="1" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="25"/>
-      <c r="AO4" s="25"/>
-      <c r="AP4" s="25"/>
-      <c r="AQ4" s="25"/>
-      <c r="AR4" s="25"/>
-      <c r="AS4" s="25"/>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="25"/>
-      <c r="AV4" s="26"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="17"/>
+      <c r="AO4" s="17"/>
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="17"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="18"/>
     </row>
-    <row r="5" spans="1:48" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="28"/>
-      <c r="AK5" s="28"/>
-      <c r="AL5" s="28"/>
-      <c r="AM5" s="28"/>
-      <c r="AN5" s="28"/>
-      <c r="AO5" s="28"/>
-      <c r="AP5" s="28"/>
-      <c r="AQ5" s="28"/>
-      <c r="AR5" s="28"/>
-      <c r="AS5" s="28"/>
-      <c r="AT5" s="28"/>
-      <c r="AU5" s="28"/>
-      <c r="AV5" s="29"/>
+    <row r="5" spans="1:48" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
+      <c r="AM5" s="20"/>
+      <c r="AN5" s="20"/>
+      <c r="AO5" s="20"/>
+      <c r="AP5" s="20"/>
+      <c r="AQ5" s="20"/>
+      <c r="AR5" s="20"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="20"/>
+      <c r="AU5" s="20"/>
+      <c r="AV5" s="21"/>
     </row>
-    <row r="6" spans="1:48" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.5">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:48" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="21" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="21" t="s">
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="21" t="s">
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="21" t="s">
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="21" t="s">
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="23"/>
-      <c r="AK6" s="21" t="s">
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="22"/>
-      <c r="AO6" s="22"/>
-      <c r="AP6" s="23"/>
-      <c r="AQ6" s="21" t="s">
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AR6" s="22"/>
-      <c r="AS6" s="22"/>
-      <c r="AT6" s="22"/>
-      <c r="AU6" s="22"/>
-      <c r="AV6" s="23"/>
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="14"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="14"/>
+      <c r="AV6" s="15"/>
     </row>
-    <row r="7" spans="1:48" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="35" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="34" t="s">
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
-      <c r="AE7" s="19" t="s">
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
+      <c r="AE7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="20"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="26"/>
       <c r="AJ7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AK7" s="17" t="s">
+      <c r="AK7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="18"/>
+      <c r="AL7" s="31"/>
+      <c r="AM7" s="32"/>
       <c r="AN7" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="AO7" s="19"/>
-      <c r="AP7" s="19"/>
-      <c r="AQ7" s="19"/>
-      <c r="AR7" s="19"/>
-      <c r="AS7" s="19"/>
-      <c r="AT7" s="19"/>
-      <c r="AU7" s="19"/>
-      <c r="AV7" s="20"/>
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="25"/>
+      <c r="AQ7" s="25"/>
+      <c r="AR7" s="25"/>
+      <c r="AS7" s="25"/>
+      <c r="AT7" s="25"/>
+      <c r="AU7" s="25"/>
+      <c r="AV7" s="26"/>
     </row>
-    <row r="8" spans="1:48" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:48" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
       <c r="AJ8" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:48" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="E9" s="15" t="s">
+    <row r="9" spans="1:48" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="16"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
       <c r="AJ9" s="10">
         <v>43281</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="G10" s="15" t="s">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="G10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="16"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="30"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="G11" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="30"/>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="I12" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="G10:R10"/>
+    <mergeCell ref="AK7:AM7"/>
+    <mergeCell ref="AN7:AV7"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="J7:L7"/>
     <mergeCell ref="AK6:AP6"/>
     <mergeCell ref="AQ6:AV6"/>
     <mergeCell ref="A4:AV5"/>
@@ -986,12 +1031,6 @@
     <mergeCell ref="AE6:AJ6"/>
     <mergeCell ref="AE7:AI7"/>
     <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G10:R10"/>
-    <mergeCell ref="AK7:AM7"/>
-    <mergeCell ref="AN7:AV7"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="J7:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Roadmap.xlsx
+++ b/Roadmap.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win7\Documents\GitHub\Paralysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xbx_d\Documents\GitHub\Paralysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>January</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Gamemodes -- Sandro</t>
+  </si>
+  <si>
+    <t>Get local Multiplayer ready for 4 players -- Jan</t>
   </si>
 </sst>
 </file>
@@ -305,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -325,67 +328,25 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -395,6 +356,54 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -685,8 +694,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:AV12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,305 +729,303 @@
     </row>
     <row r="3" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:48" s="1" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="17"/>
-      <c r="AN4" s="17"/>
-      <c r="AO4" s="17"/>
-      <c r="AP4" s="17"/>
-      <c r="AQ4" s="17"/>
-      <c r="AR4" s="17"/>
-      <c r="AS4" s="17"/>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="17"/>
-      <c r="AV4" s="18"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="29"/>
+      <c r="AO4" s="29"/>
+      <c r="AP4" s="29"/>
+      <c r="AQ4" s="29"/>
+      <c r="AR4" s="29"/>
+      <c r="AS4" s="29"/>
+      <c r="AT4" s="29"/>
+      <c r="AU4" s="29"/>
+      <c r="AV4" s="30"/>
     </row>
     <row r="5" spans="1:48" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="20"/>
-      <c r="AL5" s="20"/>
-      <c r="AM5" s="20"/>
-      <c r="AN5" s="20"/>
-      <c r="AO5" s="20"/>
-      <c r="AP5" s="20"/>
-      <c r="AQ5" s="20"/>
-      <c r="AR5" s="20"/>
-      <c r="AS5" s="20"/>
-      <c r="AT5" s="20"/>
-      <c r="AU5" s="20"/>
-      <c r="AV5" s="21"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="32"/>
+      <c r="AM5" s="32"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="32"/>
+      <c r="AQ5" s="32"/>
+      <c r="AR5" s="32"/>
+      <c r="AS5" s="32"/>
+      <c r="AT5" s="32"/>
+      <c r="AU5" s="32"/>
+      <c r="AV5" s="33"/>
     </row>
     <row r="6" spans="1:48" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="13" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="13" t="s">
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="13" t="s">
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="13" t="s">
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="13" t="s">
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="13" t="s">
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="26"/>
+      <c r="AJ6" s="27"/>
+      <c r="AK6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AL6" s="14"/>
-      <c r="AM6" s="14"/>
-      <c r="AN6" s="14"/>
-      <c r="AO6" s="14"/>
-      <c r="AP6" s="15"/>
-      <c r="AQ6" s="13" t="s">
+      <c r="AL6" s="26"/>
+      <c r="AM6" s="26"/>
+      <c r="AN6" s="26"/>
+      <c r="AO6" s="26"/>
+      <c r="AP6" s="27"/>
+      <c r="AQ6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AR6" s="14"/>
-      <c r="AS6" s="14"/>
-      <c r="AT6" s="14"/>
-      <c r="AU6" s="14"/>
-      <c r="AV6" s="15"/>
+      <c r="AR6" s="26"/>
+      <c r="AS6" s="26"/>
+      <c r="AT6" s="26"/>
+      <c r="AU6" s="26"/>
+      <c r="AV6" s="27"/>
     </row>
     <row r="7" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="27" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="36" t="s">
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="23"/>
-      <c r="AE7" s="25" t="s">
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
+      <c r="AE7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="25"/>
-      <c r="AI7" s="26"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="19"/>
       <c r="AJ7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AK7" s="31" t="s">
+      <c r="AK7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="AL7" s="31"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="33" t="s">
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="AO7" s="25"/>
-      <c r="AP7" s="25"/>
-      <c r="AQ7" s="25"/>
-      <c r="AR7" s="25"/>
-      <c r="AS7" s="25"/>
-      <c r="AT7" s="25"/>
-      <c r="AU7" s="25"/>
-      <c r="AV7" s="26"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="19"/>
     </row>
     <row r="8" spans="1:48" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
       <c r="AJ8" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:48" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="30"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
       <c r="AJ9" s="10">
         <v>43281</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="30"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="14"/>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="30"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="G10:R10"/>
-    <mergeCell ref="AK7:AM7"/>
-    <mergeCell ref="AN7:AV7"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="J7:L7"/>
+  <mergeCells count="21">
     <mergeCell ref="AK6:AP6"/>
     <mergeCell ref="AQ6:AV6"/>
     <mergeCell ref="A4:AV5"/>
@@ -1031,6 +1038,15 @@
     <mergeCell ref="AE6:AJ6"/>
     <mergeCell ref="AE7:AI7"/>
     <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="G10:R10"/>
+    <mergeCell ref="AK7:AM7"/>
+    <mergeCell ref="AN7:AV7"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M9:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Roadmap.xlsx
+++ b/Roadmap.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
-  <workbookPr codeName="DieseArbeitsmappe"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xbx_d\Documents\GitHub\Paralysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dehilja\Documents\GitHub\Paralysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="6225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18876" windowHeight="6228"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>January</t>
   </si>
@@ -102,12 +102,15 @@
   </si>
   <si>
     <t>Get local Multiplayer ready for 4 players -- Jan</t>
+  </si>
+  <si>
+    <t>Rework Champion Selection for local Multiplayer -- Jan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -328,6 +331,54 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -341,12 +392,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -356,48 +401,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -690,24 +693,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:AV12"/>
+  <dimension ref="A1:AV13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="11.42578125" style="2" customWidth="1"/>
-    <col min="3" max="35" width="11.42578125" style="2"/>
-    <col min="36" max="36" width="14.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="11.44140625" style="2"/>
+    <col min="2" max="2" width="11.44140625" style="2" customWidth="1"/>
+    <col min="3" max="35" width="11.44140625" style="2"/>
+    <col min="36" max="36" width="14.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
         <v>9</v>
@@ -717,7 +720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="6" t="s">
         <v>10</v>
@@ -727,251 +730,251 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:48" s="1" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+    <row r="3" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:48" s="1" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="29"/>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="29"/>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="29"/>
-      <c r="AL4" s="29"/>
-      <c r="AM4" s="29"/>
-      <c r="AN4" s="29"/>
-      <c r="AO4" s="29"/>
-      <c r="AP4" s="29"/>
-      <c r="AQ4" s="29"/>
-      <c r="AR4" s="29"/>
-      <c r="AS4" s="29"/>
-      <c r="AT4" s="29"/>
-      <c r="AU4" s="29"/>
-      <c r="AV4" s="30"/>
-    </row>
-    <row r="5" spans="1:48" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="32"/>
-      <c r="AI5" s="32"/>
-      <c r="AJ5" s="32"/>
-      <c r="AK5" s="32"/>
-      <c r="AL5" s="32"/>
-      <c r="AM5" s="32"/>
-      <c r="AN5" s="32"/>
-      <c r="AO5" s="32"/>
-      <c r="AP5" s="32"/>
-      <c r="AQ5" s="32"/>
-      <c r="AR5" s="32"/>
-      <c r="AS5" s="32"/>
-      <c r="AT5" s="32"/>
-      <c r="AU5" s="32"/>
-      <c r="AV5" s="33"/>
-    </row>
-    <row r="6" spans="1:48" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="34" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="17"/>
+      <c r="AO4" s="17"/>
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="17"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="18"/>
+    </row>
+    <row r="5" spans="1:48" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
+      <c r="AM5" s="20"/>
+      <c r="AN5" s="20"/>
+      <c r="AO5" s="20"/>
+      <c r="AP5" s="20"/>
+      <c r="AQ5" s="20"/>
+      <c r="AR5" s="20"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="20"/>
+      <c r="AU5" s="20"/>
+      <c r="AV5" s="21"/>
+    </row>
+    <row r="6" spans="1:48" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="25" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="25" t="s">
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="25" t="s">
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="25" t="s">
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="25" t="s">
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="26"/>
-      <c r="AJ6" s="27"/>
-      <c r="AK6" s="25" t="s">
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AL6" s="26"/>
-      <c r="AM6" s="26"/>
-      <c r="AN6" s="26"/>
-      <c r="AO6" s="26"/>
-      <c r="AP6" s="27"/>
-      <c r="AQ6" s="25" t="s">
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AR6" s="26"/>
-      <c r="AS6" s="26"/>
-      <c r="AT6" s="26"/>
-      <c r="AU6" s="26"/>
-      <c r="AV6" s="27"/>
-    </row>
-    <row r="7" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="14"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="14"/>
+      <c r="AV6" s="15"/>
+    </row>
+    <row r="7" spans="1:48" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="35" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="22" t="s">
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
-      <c r="AE7" s="18" t="s">
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
+      <c r="AE7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="19"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="26"/>
       <c r="AJ7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AK7" s="15" t="s">
+      <c r="AK7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AL7" s="15"/>
-      <c r="AM7" s="16"/>
-      <c r="AN7" s="17" t="s">
+      <c r="AL7" s="31"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="AO7" s="18"/>
-      <c r="AP7" s="18"/>
-      <c r="AQ7" s="18"/>
-      <c r="AR7" s="18"/>
-      <c r="AS7" s="18"/>
-      <c r="AT7" s="18"/>
-      <c r="AU7" s="18"/>
-      <c r="AV7" s="19"/>
-    </row>
-    <row r="8" spans="1:48" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="25"/>
+      <c r="AQ7" s="25"/>
+      <c r="AR7" s="25"/>
+      <c r="AS7" s="25"/>
+      <c r="AT7" s="25"/>
+      <c r="AU7" s="25"/>
+      <c r="AV7" s="26"/>
+    </row>
+    <row r="8" spans="1:48" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
       <c r="AJ8" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:48" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E9" s="13" t="s">
+    <row r="9" spans="1:48" ht="18" x14ac:dyDescent="0.35">
+      <c r="E9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
       <c r="M9" s="37" t="s">
         <v>25</v>
       </c>
@@ -982,50 +985,70 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="G10" s="13" t="s">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="G10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="14"/>
-    </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="G11" s="13" t="s">
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="30"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="G11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="14"/>
-    </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="I12" s="13" t="s">
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="30"/>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="I12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="O13" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="O13:T13"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="G10:R10"/>
+    <mergeCell ref="AK7:AM7"/>
+    <mergeCell ref="AN7:AV7"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M9:P9"/>
     <mergeCell ref="AK6:AP6"/>
     <mergeCell ref="AQ6:AV6"/>
     <mergeCell ref="A4:AV5"/>
@@ -1038,15 +1061,6 @@
     <mergeCell ref="AE6:AJ6"/>
     <mergeCell ref="AE7:AI7"/>
     <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="G10:R10"/>
-    <mergeCell ref="AK7:AM7"/>
-    <mergeCell ref="AN7:AV7"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M9:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
